--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Sema6d</t>
+  </si>
+  <si>
+    <t>Trem2</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema6d</t>
-  </si>
-  <si>
-    <t>Trem2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H2">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I2">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J2">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.6637555000000001</v>
+        <v>0.070248</v>
       </c>
       <c r="N2">
-        <v>1.327511</v>
+        <v>0.140496</v>
       </c>
       <c r="O2">
-        <v>0.003358297516997089</v>
+        <v>0.0004425354544144626</v>
       </c>
       <c r="P2">
-        <v>0.002241374078332034</v>
+        <v>0.0002952838654702548</v>
       </c>
       <c r="Q2">
-        <v>40.9148242514995</v>
+        <v>4.328155110744</v>
       </c>
       <c r="R2">
-        <v>163.659297005998</v>
+        <v>17.312620442976</v>
       </c>
       <c r="S2">
-        <v>0.001399923282270195</v>
+        <v>0.000215487701469633</v>
       </c>
       <c r="T2">
-        <v>0.0007831515066659992</v>
+        <v>0.00013698957653507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H3">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I3">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J3">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>87.41567999999999</v>
+        <v>39.10867133333333</v>
       </c>
       <c r="N3">
-        <v>262.24704</v>
+        <v>117.326014</v>
       </c>
       <c r="O3">
-        <v>0.4422831315003974</v>
+        <v>0.2463696281750731</v>
       </c>
       <c r="P3">
-        <v>0.4427787924735116</v>
+        <v>0.2465869415082083</v>
       </c>
       <c r="Q3">
-        <v>5388.42568389312</v>
+        <v>2409.583129851014</v>
       </c>
       <c r="R3">
-        <v>32330.55410335872</v>
+        <v>14457.49877910608</v>
       </c>
       <c r="S3">
-        <v>0.1843679572786682</v>
+        <v>0.1199669413100918</v>
       </c>
       <c r="T3">
-        <v>0.1547099530585423</v>
+        <v>0.1143978545610387</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H4">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I4">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J4">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.298926</v>
+        <v>0.349437</v>
       </c>
       <c r="N4">
-        <v>0.8967780000000001</v>
+        <v>0.698874</v>
       </c>
       <c r="O4">
-        <v>0.001512428060582356</v>
+        <v>0.002201319063663401</v>
       </c>
       <c r="P4">
-        <v>0.001514123019107521</v>
+        <v>0.001468840509314563</v>
       </c>
       <c r="Q4">
-        <v>18.426219826734</v>
+        <v>21.529688210811</v>
       </c>
       <c r="R4">
-        <v>110.557318960404</v>
+        <v>86.118752843244</v>
       </c>
       <c r="S4">
-        <v>0.0006304632761248689</v>
+        <v>0.001071907754504671</v>
       </c>
       <c r="T4">
-        <v>0.0005290449885876061</v>
+        <v>0.0006814318792803391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>61.641409</v>
+        <v>61.612503</v>
       </c>
       <c r="H5">
-        <v>123.282818</v>
+        <v>123.225006</v>
       </c>
       <c r="I5">
-        <v>0.4168550508657654</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J5">
-        <v>0.3494068724346086</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,90 +747,90 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>109.268064</v>
+        <v>18.50526</v>
       </c>
       <c r="N5">
-        <v>327.804192</v>
+        <v>55.51577999999999</v>
       </c>
       <c r="O5">
-        <v>0.5528461429220233</v>
+        <v>0.1165760397898556</v>
       </c>
       <c r="P5">
-        <v>0.5534657104290488</v>
+        <v>0.1166788671065102</v>
       </c>
       <c r="Q5">
-        <v>6735.437423662176</v>
+        <v>1140.15538726578</v>
       </c>
       <c r="R5">
-        <v>40412.62454197305</v>
+        <v>6840.932323594679</v>
       </c>
       <c r="S5">
-        <v>0.2304567070287022</v>
+        <v>0.05676540175518079</v>
       </c>
       <c r="T5">
-        <v>0.1933847228808127</v>
+        <v>0.05413024707617376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.35119866666667</v>
+        <v>61.612503</v>
       </c>
       <c r="H6">
-        <v>37.053596</v>
+        <v>123.225006</v>
       </c>
       <c r="I6">
-        <v>0.0835259873512383</v>
+        <v>0.486938841442103</v>
       </c>
       <c r="J6">
-        <v>0.1050169139613236</v>
+        <v>0.463925031314891</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6637555000000001</v>
+        <v>100.7062073333333</v>
       </c>
       <c r="N6">
-        <v>1.327511</v>
+        <v>302.118622</v>
       </c>
       <c r="O6">
-        <v>0.003358297516997089</v>
+        <v>0.6344104775169934</v>
       </c>
       <c r="P6">
-        <v>0.002241374078332034</v>
+        <v>0.6349700670104967</v>
       </c>
       <c r="Q6">
-        <v>8.198176046592668</v>
+        <v>6204.761501443621</v>
       </c>
       <c r="R6">
-        <v>49.18905627955601</v>
+        <v>37228.56900866173</v>
       </c>
       <c r="S6">
-        <v>0.0002805051159263939</v>
+        <v>0.3089191029208561</v>
       </c>
       <c r="T6">
-        <v>0.0002353821887393363</v>
+        <v>0.2945785082218632</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>37.053596</v>
       </c>
       <c r="I7">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J7">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>87.41567999999999</v>
+        <v>0.070248</v>
       </c>
       <c r="N7">
-        <v>262.24704</v>
+        <v>0.140496</v>
       </c>
       <c r="O7">
-        <v>0.4422831315003974</v>
+        <v>0.0004425354544144626</v>
       </c>
       <c r="P7">
-        <v>0.4427787924735116</v>
+        <v>0.0002952838654702548</v>
       </c>
       <c r="Q7">
-        <v>1079.68843026176</v>
+        <v>0.867647003936</v>
       </c>
       <c r="R7">
-        <v>9717.195872355838</v>
+        <v>5.205882023616001</v>
       </c>
       <c r="S7">
-        <v>0.03694213524736826</v>
+        <v>4.31979108375908E-05</v>
       </c>
       <c r="T7">
-        <v>0.04649926235308954</v>
+        <v>4.119258411836932E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>37.053596</v>
       </c>
       <c r="I8">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J8">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.298926</v>
+        <v>39.10867133333333</v>
       </c>
       <c r="N8">
-        <v>0.8967780000000001</v>
+        <v>117.326014</v>
       </c>
       <c r="O8">
-        <v>0.001512428060582356</v>
+        <v>0.2463696281750731</v>
       </c>
       <c r="P8">
-        <v>0.001514123019107521</v>
+        <v>0.2465869415082083</v>
       </c>
       <c r="Q8">
-        <v>3.692094412632001</v>
+        <v>483.0389692273716</v>
       </c>
       <c r="R8">
-        <v>33.228849713688</v>
+        <v>4347.350723046344</v>
       </c>
       <c r="S8">
-        <v>0.0001263270470578597</v>
+        <v>0.02404926684366782</v>
       </c>
       <c r="T8">
-        <v>0.0001590085268244742</v>
+        <v>0.03439928326050547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,134 +983,134 @@
         <v>37.053596</v>
       </c>
       <c r="I9">
-        <v>0.0835259873512383</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J9">
-        <v>0.1050169139613236</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M9">
-        <v>109.268064</v>
+        <v>0.349437</v>
       </c>
       <c r="N9">
-        <v>327.804192</v>
+        <v>0.698874</v>
       </c>
       <c r="O9">
-        <v>0.5528461429220233</v>
+        <v>0.002201319063663401</v>
       </c>
       <c r="P9">
-        <v>0.5534657104290488</v>
+        <v>0.001468840509314563</v>
       </c>
       <c r="Q9">
-        <v>1349.591566386048</v>
+        <v>4.315965808484</v>
       </c>
       <c r="R9">
-        <v>12146.32409747443</v>
+        <v>25.895794850904</v>
       </c>
       <c r="S9">
-        <v>0.0461770199408858</v>
+        <v>0.0002148808274876896</v>
       </c>
       <c r="T9">
-        <v>0.05812326089267029</v>
+        <v>0.0002049056630305577</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.556859</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H10">
-        <v>1.670577</v>
+        <v>37.053596</v>
       </c>
       <c r="I10">
-        <v>0.003765804360021349</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J10">
-        <v>0.004734731848287172</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6637555000000001</v>
+        <v>18.50526</v>
       </c>
       <c r="N10">
-        <v>1.327511</v>
+        <v>55.51577999999999</v>
       </c>
       <c r="O10">
-        <v>0.003358297516997089</v>
+        <v>0.1165760397898556</v>
       </c>
       <c r="P10">
-        <v>0.002241374078332034</v>
+        <v>0.1166788671065102</v>
       </c>
       <c r="Q10">
-        <v>0.3696182239745</v>
+        <v>228.56214263832</v>
       </c>
       <c r="R10">
-        <v>2.217709343847</v>
+        <v>2057.05928374488</v>
       </c>
       <c r="S10">
-        <v>1.264669143175651E-05</v>
+        <v>0.0113795207195427</v>
       </c>
       <c r="T10">
-        <v>1.061230523260399E-05</v>
+        <v>0.01627689355958095</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.556859</v>
+        <v>12.35119866666667</v>
       </c>
       <c r="H11">
-        <v>1.670577</v>
+        <v>37.053596</v>
       </c>
       <c r="I11">
-        <v>0.003765804360021349</v>
+        <v>0.09761457620327345</v>
       </c>
       <c r="J11">
-        <v>0.004734731848287172</v>
+        <v>0.1395016420987581</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>87.41567999999999</v>
+        <v>100.7062073333333</v>
       </c>
       <c r="N11">
-        <v>262.24704</v>
+        <v>302.118622</v>
       </c>
       <c r="O11">
-        <v>0.4422831315003974</v>
+        <v>0.6344104775169934</v>
       </c>
       <c r="P11">
-        <v>0.4427787924735116</v>
+        <v>0.6349700670104967</v>
       </c>
       <c r="Q11">
-        <v>48.67820814912</v>
+        <v>1243.842373740523</v>
       </c>
       <c r="R11">
-        <v>438.10387334208</v>
+        <v>11194.58136366471</v>
       </c>
       <c r="S11">
-        <v>0.001665551744968093</v>
+        <v>0.06192770990173765</v>
       </c>
       <c r="T11">
-        <v>0.002096438850470472</v>
+        <v>0.08857936703152276</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H12">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I12">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J12">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.298926</v>
+        <v>0.070248</v>
       </c>
       <c r="N12">
-        <v>0.8967780000000001</v>
+        <v>0.140496</v>
       </c>
       <c r="O12">
-        <v>0.001512428060582356</v>
+        <v>0.0004425354544144626</v>
       </c>
       <c r="P12">
-        <v>0.001514123019107521</v>
+        <v>0.0002952838654702548</v>
       </c>
       <c r="Q12">
-        <v>0.166459633434</v>
+        <v>3.67848436086</v>
       </c>
       <c r="R12">
-        <v>1.498136700906</v>
+        <v>14.71393744344</v>
       </c>
       <c r="S12">
-        <v>5.695508184759669E-06</v>
+        <v>0.0001831422672089623</v>
       </c>
       <c r="T12">
-        <v>7.168966480793106E-06</v>
+        <v>0.0001164269768507597</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>27</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.556859</v>
+        <v>52.3642575</v>
       </c>
       <c r="H13">
-        <v>1.670577</v>
+        <v>104.728515</v>
       </c>
       <c r="I13">
-        <v>0.003765804360021349</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J13">
-        <v>0.004734731848287172</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,42 +1243,42 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>109.268064</v>
+        <v>39.10867133333333</v>
       </c>
       <c r="N13">
-        <v>327.804192</v>
+        <v>117.326014</v>
       </c>
       <c r="O13">
-        <v>0.5528461429220233</v>
+        <v>0.2463696281750731</v>
       </c>
       <c r="P13">
-        <v>0.5534657104290488</v>
+        <v>0.2465869415082083</v>
       </c>
       <c r="Q13">
-        <v>60.846904850976</v>
+        <v>2047.896536181535</v>
       </c>
       <c r="R13">
-        <v>547.622143658784</v>
+        <v>12287.37921708921</v>
       </c>
       <c r="S13">
-        <v>0.002081910415436741</v>
+        <v>0.10195949686136</v>
       </c>
       <c r="T13">
-        <v>0.002620511726103303</v>
+        <v>0.09722634890651628</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>29.1416125</v>
+        <v>52.3642575</v>
       </c>
       <c r="H14">
-        <v>58.283225</v>
+        <v>104.728515</v>
       </c>
       <c r="I14">
-        <v>0.1970725289715218</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J14">
-        <v>0.1651857062729746</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,42 +1305,42 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.6637555000000001</v>
+        <v>0.349437</v>
       </c>
       <c r="N14">
-        <v>1.327511</v>
+        <v>0.698874</v>
       </c>
       <c r="O14">
-        <v>0.003358297516997089</v>
+        <v>0.002201319063663401</v>
       </c>
       <c r="P14">
-        <v>0.002241374078332034</v>
+        <v>0.001468840509314563</v>
       </c>
       <c r="Q14">
-        <v>19.34290557574375</v>
+        <v>18.2980090480275</v>
       </c>
       <c r="R14">
-        <v>77.37162230297501</v>
+        <v>73.19203619211</v>
       </c>
       <c r="S14">
-        <v>0.0006618281847133985</v>
+        <v>0.0009110107679463922</v>
       </c>
       <c r="T14">
-        <v>0.0003702429601512145</v>
+        <v>0.0005791466448838248</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>29.1416125</v>
+        <v>52.3642575</v>
       </c>
       <c r="H15">
-        <v>58.283225</v>
+        <v>104.728515</v>
       </c>
       <c r="I15">
-        <v>0.1970725289715218</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J15">
-        <v>0.1651857062729746</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,39 +1367,39 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>87.41567999999999</v>
+        <v>18.50526</v>
       </c>
       <c r="N15">
-        <v>262.24704</v>
+        <v>55.51577999999999</v>
       </c>
       <c r="O15">
-        <v>0.4422831315003974</v>
+        <v>0.1165760397898556</v>
       </c>
       <c r="P15">
-        <v>0.4427787924735116</v>
+        <v>0.1166788671065102</v>
       </c>
       <c r="Q15">
-        <v>2547.433872984</v>
+        <v>969.0141997444498</v>
       </c>
       <c r="R15">
-        <v>15284.603237904</v>
+        <v>5814.0851984667</v>
       </c>
       <c r="S15">
-        <v>0.08716185524622745</v>
+        <v>0.0482447225784552</v>
       </c>
       <c r="T15">
-        <v>0.07314072755743188</v>
+        <v>0.04600511354708937</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>24</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>29.1416125</v>
+        <v>52.3642575</v>
       </c>
       <c r="H16">
-        <v>58.283225</v>
+        <v>104.728515</v>
       </c>
       <c r="I16">
-        <v>0.1970725289715218</v>
+        <v>0.4138476711460002</v>
       </c>
       <c r="J16">
-        <v>0.1651857062729746</v>
+        <v>0.3942883119107905</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.298926</v>
+        <v>100.7062073333333</v>
       </c>
       <c r="N16">
-        <v>0.8967780000000001</v>
+        <v>302.118622</v>
       </c>
       <c r="O16">
-        <v>0.001512428060582356</v>
+        <v>0.6344104775169934</v>
       </c>
       <c r="P16">
-        <v>0.001514123019107521</v>
+        <v>0.6349700670104967</v>
       </c>
       <c r="Q16">
-        <v>8.711185658175001</v>
+        <v>5273.405772651055</v>
       </c>
       <c r="R16">
-        <v>52.26711394905001</v>
+        <v>31640.43463590633</v>
       </c>
       <c r="S16">
-        <v>0.0002980580227864588</v>
+        <v>0.2625492986710297</v>
       </c>
       <c r="T16">
-        <v>0.0002501114802954445</v>
+        <v>0.2503612758354503</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,76 +1458,76 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.1416125</v>
+        <v>0.177088</v>
       </c>
       <c r="H17">
-        <v>58.283225</v>
+        <v>0.531264</v>
       </c>
       <c r="I17">
-        <v>0.1970725289715218</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J17">
-        <v>0.1651857062729746</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>109.268064</v>
+        <v>0.070248</v>
       </c>
       <c r="N17">
-        <v>327.804192</v>
+        <v>0.140496</v>
       </c>
       <c r="O17">
-        <v>0.5528461429220233</v>
+        <v>0.0004425354544144626</v>
       </c>
       <c r="P17">
-        <v>0.5534657104290488</v>
+        <v>0.0002952838654702548</v>
       </c>
       <c r="Q17">
-        <v>3184.2475797132</v>
+        <v>0.012440077824</v>
       </c>
       <c r="R17">
-        <v>19105.4854782792</v>
+        <v>0.07464046694400001</v>
       </c>
       <c r="S17">
-        <v>0.1089507875177945</v>
+        <v>6.193594517309963E-07</v>
       </c>
       <c r="T17">
-        <v>0.09142462427509608</v>
+        <v>5.906076432922019E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
         <v>3</v>
       </c>
@@ -1535,57 +1535,57 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.23806633333334</v>
+        <v>0.177088</v>
       </c>
       <c r="H18">
-        <v>129.714199</v>
+        <v>0.531264</v>
       </c>
       <c r="I18">
-        <v>0.2924009465896376</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J18">
-        <v>0.3676346251506875</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.6637555000000001</v>
+        <v>39.10867133333333</v>
       </c>
       <c r="N18">
-        <v>1.327511</v>
+        <v>117.326014</v>
       </c>
       <c r="O18">
-        <v>0.003358297516997089</v>
+        <v>0.2463696281750731</v>
       </c>
       <c r="P18">
-        <v>0.002241374078332034</v>
+        <v>0.2465869415082083</v>
       </c>
       <c r="Q18">
-        <v>28.69950433811484</v>
+        <v>6.925676389077333</v>
       </c>
       <c r="R18">
-        <v>172.197026028689</v>
+        <v>62.331087501696</v>
       </c>
       <c r="S18">
-        <v>0.0009819693728995783</v>
+        <v>0.0003448115994041263</v>
       </c>
       <c r="T18">
-        <v>0.0008240067191100649</v>
+        <v>0.0004932072131975849</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1597,60 +1597,60 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.23806633333334</v>
+        <v>0.177088</v>
       </c>
       <c r="H19">
-        <v>129.714199</v>
+        <v>0.531264</v>
       </c>
       <c r="I19">
-        <v>0.2924009465896376</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J19">
-        <v>0.3676346251506875</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M19">
-        <v>87.41567999999999</v>
+        <v>0.349437</v>
       </c>
       <c r="N19">
-        <v>262.24704</v>
+        <v>0.698874</v>
       </c>
       <c r="O19">
-        <v>0.4422831315003974</v>
+        <v>0.002201319063663401</v>
       </c>
       <c r="P19">
-        <v>0.4427787924735116</v>
+        <v>0.001468840509314563</v>
       </c>
       <c r="Q19">
-        <v>3779.68497041344</v>
+        <v>0.061881099456</v>
       </c>
       <c r="R19">
-        <v>34017.16473372096</v>
+        <v>0.371286596736</v>
       </c>
       <c r="S19">
-        <v>0.1293240063113454</v>
+        <v>3.080900648196734E-06</v>
       </c>
       <c r="T19">
-        <v>0.1627808153956735</v>
+        <v>2.937879555988742E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,61 +1659,61 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.23806633333334</v>
+        <v>0.177088</v>
       </c>
       <c r="H20">
-        <v>129.714199</v>
+        <v>0.531264</v>
       </c>
       <c r="I20">
-        <v>0.2924009465896376</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J20">
-        <v>0.3676346251506875</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.298926</v>
+        <v>18.50526</v>
       </c>
       <c r="N20">
-        <v>0.8967780000000001</v>
+        <v>55.51577999999999</v>
       </c>
       <c r="O20">
-        <v>0.001512428060582356</v>
+        <v>0.1165760397898556</v>
       </c>
       <c r="P20">
-        <v>0.001514123019107521</v>
+        <v>0.1166788671065102</v>
       </c>
       <c r="Q20">
-        <v>12.924982216758</v>
+        <v>3.277059482879999</v>
       </c>
       <c r="R20">
-        <v>116.324839950822</v>
+        <v>29.49353534591999</v>
       </c>
       <c r="S20">
-        <v>0.0004422353965630105</v>
+        <v>0.0001631563558783102</v>
       </c>
       <c r="T20">
-        <v>0.0005566440485616208</v>
+        <v>0.0002333735052338028</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.23806633333334</v>
+        <v>0.177088</v>
       </c>
       <c r="H21">
-        <v>129.714199</v>
+        <v>0.531264</v>
       </c>
       <c r="I21">
-        <v>0.2924009465896376</v>
+        <v>0.001399570239068183</v>
       </c>
       <c r="J21">
-        <v>0.3676346251506875</v>
+        <v>0.002000135166043118</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,60 +1739,60 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>109.268064</v>
+        <v>100.7062073333333</v>
       </c>
       <c r="N21">
-        <v>327.804192</v>
+        <v>302.118622</v>
       </c>
       <c r="O21">
-        <v>0.5528461429220233</v>
+        <v>0.6344104775169934</v>
       </c>
       <c r="P21">
-        <v>0.5534657104290488</v>
+        <v>0.6349700670104967</v>
       </c>
       <c r="Q21">
-        <v>4724.539799346912</v>
+        <v>17.83386084424533</v>
       </c>
       <c r="R21">
-        <v>42520.85819412221</v>
+        <v>160.504747598208</v>
       </c>
       <c r="S21">
-        <v>0.1616527355088297</v>
+        <v>0.0008879020236858185</v>
       </c>
       <c r="T21">
-        <v>0.2034731589873423</v>
+        <v>0.00127002596041245</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.9433796666666666</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H22">
-        <v>2.830139</v>
+        <v>0.075668</v>
       </c>
       <c r="I22">
-        <v>0.006379681861815685</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J22">
-        <v>0.008021150332118549</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,60 +1801,60 @@
         <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.6637555000000001</v>
+        <v>0.070248</v>
       </c>
       <c r="N22">
-        <v>1.327511</v>
+        <v>0.140496</v>
       </c>
       <c r="O22">
-        <v>0.003358297516997089</v>
+        <v>0.0004425354544144626</v>
       </c>
       <c r="P22">
-        <v>0.002241374078332034</v>
+        <v>0.0002952838654702548</v>
       </c>
       <c r="Q22">
-        <v>0.6261734423381666</v>
+        <v>0.001771841888</v>
       </c>
       <c r="R22">
-        <v>3.757040654029</v>
+        <v>0.010631051328</v>
       </c>
       <c r="S22">
-        <v>2.142486975576698E-05</v>
+        <v>8.821544654556122E-08</v>
       </c>
       <c r="T22">
-        <v>1.79783984328149E-05</v>
+        <v>8.412032276351181E-08</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.9433796666666666</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H23">
-        <v>2.830139</v>
+        <v>0.075668</v>
       </c>
       <c r="I23">
-        <v>0.006379681861815685</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J23">
-        <v>0.008021150332118549</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,122 +1863,122 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>87.41567999999999</v>
+        <v>39.10867133333333</v>
       </c>
       <c r="N23">
-        <v>262.24704</v>
+        <v>117.326014</v>
       </c>
       <c r="O23">
-        <v>0.4422831315003974</v>
+        <v>0.2463696281750731</v>
       </c>
       <c r="P23">
-        <v>0.4427787924735116</v>
+        <v>0.2465869415082083</v>
       </c>
       <c r="Q23">
-        <v>82.46617505984</v>
+        <v>0.9864249808168889</v>
       </c>
       <c r="R23">
-        <v>742.1955755385599</v>
+        <v>8.877824827352001</v>
       </c>
       <c r="S23">
-        <v>0.002821625671820127</v>
+        <v>4.911156054939057E-05</v>
       </c>
       <c r="T23">
-        <v>0.003551595258303957</v>
+        <v>7.024756695020715E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.9433796666666666</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H24">
-        <v>2.830139</v>
+        <v>0.075668</v>
       </c>
       <c r="I24">
-        <v>0.006379681861815685</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J24">
-        <v>0.008021150332118549</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M24">
-        <v>0.298926</v>
+        <v>0.349437</v>
       </c>
       <c r="N24">
-        <v>0.8967780000000001</v>
+        <v>0.698874</v>
       </c>
       <c r="O24">
-        <v>0.001512428060582356</v>
+        <v>0.002201319063663401</v>
       </c>
       <c r="P24">
-        <v>0.001514123019107521</v>
+        <v>0.001468840509314563</v>
       </c>
       <c r="Q24">
-        <v>0.282000710238</v>
+        <v>0.008813732972000001</v>
       </c>
       <c r="R24">
-        <v>2.538006392142</v>
+        <v>0.052882397832</v>
       </c>
       <c r="S24">
-        <v>9.648809865398329E-06</v>
+        <v>4.388130764511627E-07</v>
       </c>
       <c r="T24">
-        <v>1.214500835758263E-05</v>
+        <v>4.184425638525406E-07</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.9433796666666666</v>
+        <v>0.02522266666666667</v>
       </c>
       <c r="H25">
-        <v>2.830139</v>
+        <v>0.075668</v>
       </c>
       <c r="I25">
-        <v>0.006379681861815685</v>
+        <v>0.0001993409695552706</v>
       </c>
       <c r="J25">
-        <v>0.008021150332118549</v>
+        <v>0.0002848795095172093</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,90 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>109.268064</v>
+        <v>18.50526</v>
       </c>
       <c r="N25">
-        <v>327.804192</v>
+        <v>55.51577999999999</v>
       </c>
       <c r="O25">
-        <v>0.5528461429220233</v>
+        <v>0.1165760397898556</v>
       </c>
       <c r="P25">
-        <v>0.5534657104290488</v>
+        <v>0.1166788671065102</v>
       </c>
       <c r="Q25">
-        <v>103.081269793632</v>
+        <v>0.4667520045599999</v>
       </c>
       <c r="R25">
-        <v>927.7314281426879</v>
+        <v>4.200768041039999</v>
       </c>
       <c r="S25">
-        <v>0.003526982510374393</v>
+        <v>2.323838079862361E-05</v>
       </c>
       <c r="T25">
-        <v>0.004439431667024193</v>
+        <v>3.323941843232628E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.02522266666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.075668</v>
+      </c>
+      <c r="I26">
+        <v>0.0001993409695552706</v>
+      </c>
+      <c r="J26">
+        <v>0.0002848795095172093</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>100.7062073333333</v>
+      </c>
+      <c r="N26">
+        <v>302.118622</v>
+      </c>
+      <c r="O26">
+        <v>0.6344104775169934</v>
+      </c>
+      <c r="P26">
+        <v>0.6349700670104967</v>
+      </c>
+      <c r="Q26">
+        <v>2.540079098832889</v>
+      </c>
+      <c r="R26">
+        <v>22.860711889496</v>
+      </c>
+      <c r="S26">
+        <v>0.0001264639996842597</v>
+      </c>
+      <c r="T26">
+        <v>0.0001808899612480598</v>
       </c>
     </row>
   </sheetData>
